--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedas\eclipse-workspace\JavaTraining\api.testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71785E42-220C-4D38-BDEA-C5A34EE11A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C31ACDC-3255-4A3D-8CE7-DDC8F963D2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,13 +65,13 @@
     <t>status</t>
   </si>
   <si>
-    <t>dann_p@gmail.com</t>
-  </si>
-  <si>
-    <t>pam_p@yahoo.com</t>
-  </si>
-  <si>
-    <t>susan_p@gmail.com</t>
+    <t>dann_p1@gmail.com</t>
+  </si>
+  <si>
+    <t>pam1_p@yahoo.com</t>
+  </si>
+  <si>
+    <t>sus22an_p@gmail.com</t>
   </si>
 </sst>
 </file>
